--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.0749131495152</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H2">
-        <v>31.0749131495152</v>
+        <v>119.006023</v>
       </c>
       <c r="I2">
-        <v>0.1271467007244361</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J2">
-        <v>0.1271467007244361</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24866834061846</v>
+        <v>2.041175666666667</v>
       </c>
       <c r="N2">
-        <v>1.24866834061846</v>
+        <v>6.123527</v>
       </c>
       <c r="O2">
-        <v>0.06612278132341352</v>
+        <v>0.1007574239555886</v>
       </c>
       <c r="P2">
-        <v>0.06612278132341352</v>
+        <v>0.1007574239555885</v>
       </c>
       <c r="Q2">
-        <v>38.80226023726791</v>
+        <v>80.97073277812456</v>
       </c>
       <c r="R2">
-        <v>38.80226023726791</v>
+        <v>728.736595003121</v>
       </c>
       <c r="S2">
-        <v>0.00840729348799539</v>
+        <v>0.01557449985553176</v>
       </c>
       <c r="T2">
-        <v>0.00840729348799539</v>
+        <v>0.01557449985553175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.0749131495152</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H3">
-        <v>31.0749131495152</v>
+        <v>119.006023</v>
       </c>
       <c r="I3">
-        <v>0.1271467007244361</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J3">
-        <v>0.1271467007244361</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.41776839932586</v>
+        <v>9.510473333333332</v>
       </c>
       <c r="N3">
-        <v>9.41776839932586</v>
+        <v>28.53142</v>
       </c>
       <c r="O3">
-        <v>0.4987145266410319</v>
+        <v>0.4694602279037812</v>
       </c>
       <c r="P3">
-        <v>0.4987145266410319</v>
+        <v>0.4694602279037812</v>
       </c>
       <c r="Q3">
-        <v>292.6563350712999</v>
+        <v>377.2678694158511</v>
       </c>
       <c r="R3">
-        <v>292.6563350712999</v>
+        <v>3395.41082474266</v>
       </c>
       <c r="S3">
-        <v>0.06340990666575608</v>
+        <v>0.0725664468643832</v>
       </c>
       <c r="T3">
-        <v>0.06340990666575608</v>
+        <v>0.07256644686438317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.0749131495152</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H4">
-        <v>31.0749131495152</v>
+        <v>119.006023</v>
       </c>
       <c r="I4">
-        <v>0.1271467007244361</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J4">
-        <v>0.1271467007244361</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.18661107578098</v>
+        <v>6.660130333333334</v>
       </c>
       <c r="N4">
-        <v>6.18661107578098</v>
+        <v>19.980391</v>
       </c>
       <c r="O4">
-        <v>0.3276097567223177</v>
+        <v>0.3287603250194579</v>
       </c>
       <c r="P4">
-        <v>0.3276097567223177</v>
+        <v>0.3287603250194578</v>
       </c>
       <c r="Q4">
-        <v>192.2484018697228</v>
+        <v>264.1985412105548</v>
       </c>
       <c r="R4">
-        <v>192.2484018697228</v>
+        <v>2377.786870894993</v>
       </c>
       <c r="S4">
-        <v>0.04165449969237784</v>
+        <v>0.05081786962692711</v>
       </c>
       <c r="T4">
-        <v>0.04165449969237784</v>
+        <v>0.05081786962692709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.0749131495152</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H5">
-        <v>31.0749131495152</v>
+        <v>119.006023</v>
       </c>
       <c r="I5">
-        <v>0.1271467007244361</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J5">
-        <v>0.1271467007244361</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.0310389638536</v>
+        <v>2.046536</v>
       </c>
       <c r="N5">
-        <v>2.0310389638536</v>
+        <v>6.139608</v>
       </c>
       <c r="O5">
-        <v>0.1075529353132368</v>
+        <v>0.1010220231211724</v>
       </c>
       <c r="P5">
-        <v>0.1075529353132368</v>
+        <v>0.1010220231211723</v>
       </c>
       <c r="Q5">
-        <v>63.11435940503197</v>
+        <v>81.18337009544268</v>
       </c>
       <c r="R5">
-        <v>63.11435940503197</v>
+        <v>730.650330858984</v>
       </c>
       <c r="S5">
-        <v>0.01367500087830676</v>
+        <v>0.01561540006421489</v>
       </c>
       <c r="T5">
-        <v>0.01367500087830676</v>
+        <v>0.01561540006421489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.3664868297807</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H6">
-        <v>57.3664868297807</v>
+        <v>172.981738</v>
       </c>
       <c r="I6">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="J6">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.24866834061846</v>
+        <v>2.041175666666667</v>
       </c>
       <c r="N6">
-        <v>1.24866834061846</v>
+        <v>6.123527</v>
       </c>
       <c r="O6">
-        <v>0.06612278132341352</v>
+        <v>0.1007574239555886</v>
       </c>
       <c r="P6">
-        <v>0.06612278132341352</v>
+        <v>0.1007574239555885</v>
       </c>
       <c r="Q6">
-        <v>71.631715916853</v>
+        <v>117.6953714611029</v>
       </c>
       <c r="R6">
-        <v>71.631715916853</v>
+        <v>1059.258343149926</v>
       </c>
       <c r="S6">
-        <v>0.01552045821761896</v>
+        <v>0.02263838405465101</v>
       </c>
       <c r="T6">
-        <v>0.01552045821761896</v>
+        <v>0.02263838405465101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.3664868297807</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H7">
-        <v>57.3664868297807</v>
+        <v>172.981738</v>
       </c>
       <c r="I7">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="J7">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.41776839932586</v>
+        <v>9.510473333333332</v>
       </c>
       <c r="N7">
-        <v>9.41776839932586</v>
+        <v>28.53142</v>
       </c>
       <c r="O7">
-        <v>0.4987145266410319</v>
+        <v>0.4694602279037812</v>
       </c>
       <c r="P7">
-        <v>0.4987145266410319</v>
+        <v>0.4694602279037812</v>
       </c>
       <c r="Q7">
-        <v>540.2642868458518</v>
+        <v>548.3794021342176</v>
       </c>
       <c r="R7">
-        <v>540.2642868458518</v>
+        <v>4935.414619207959</v>
       </c>
       <c r="S7">
-        <v>0.1170591711106832</v>
+        <v>0.1054792840114122</v>
       </c>
       <c r="T7">
-        <v>0.1170591711106832</v>
+        <v>0.1054792840114122</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>57.3664868297807</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H8">
-        <v>57.3664868297807</v>
+        <v>172.981738</v>
       </c>
       <c r="I8">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="J8">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.18661107578098</v>
+        <v>6.660130333333334</v>
       </c>
       <c r="N8">
-        <v>6.18661107578098</v>
+        <v>19.980391</v>
       </c>
       <c r="O8">
-        <v>0.3276097567223177</v>
+        <v>0.3287603250194579</v>
       </c>
       <c r="P8">
-        <v>0.3276097567223177</v>
+        <v>0.3287603250194578</v>
       </c>
       <c r="Q8">
-        <v>354.904142799765</v>
+        <v>384.0269734555064</v>
       </c>
       <c r="R8">
-        <v>354.904142799765</v>
+        <v>3456.242761099558</v>
       </c>
       <c r="S8">
-        <v>0.07689715161894757</v>
+        <v>0.07386654211210185</v>
       </c>
       <c r="T8">
-        <v>0.07689715161894757</v>
+        <v>0.07386654211210182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>57.3664868297807</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H9">
-        <v>57.3664868297807</v>
+        <v>172.981738</v>
       </c>
       <c r="I9">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="J9">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.0310389638536</v>
+        <v>2.046536</v>
       </c>
       <c r="N9">
-        <v>2.0310389638536</v>
+        <v>6.139608</v>
       </c>
       <c r="O9">
-        <v>0.1075529353132368</v>
+        <v>0.1010220231211724</v>
       </c>
       <c r="P9">
-        <v>0.1075529353132368</v>
+        <v>0.1010220231211723</v>
       </c>
       <c r="Q9">
-        <v>116.513569970679</v>
+        <v>118.0044513865227</v>
       </c>
       <c r="R9">
-        <v>116.513569970679</v>
+        <v>1062.040062478704</v>
       </c>
       <c r="S9">
-        <v>0.02524501851406985</v>
+        <v>0.02269783473625703</v>
       </c>
       <c r="T9">
-        <v>0.02524501851406985</v>
+        <v>0.02269783473625702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.7378119114083</v>
+        <v>64.993678</v>
       </c>
       <c r="H10">
-        <v>61.7378119114083</v>
+        <v>194.981034</v>
       </c>
       <c r="I10">
-        <v>0.2526075956097666</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="J10">
-        <v>0.2526075956097666</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.24866834061846</v>
+        <v>2.041175666666667</v>
       </c>
       <c r="N10">
-        <v>1.24866834061846</v>
+        <v>6.123527</v>
       </c>
       <c r="O10">
-        <v>0.06612278132341352</v>
+        <v>0.1007574239555886</v>
       </c>
       <c r="P10">
-        <v>0.06612278132341352</v>
+        <v>0.1007574239555885</v>
       </c>
       <c r="Q10">
-        <v>77.0900511528328</v>
+        <v>132.6635140207687</v>
       </c>
       <c r="R10">
-        <v>77.0900511528328</v>
+        <v>1193.971626186918</v>
       </c>
       <c r="S10">
-        <v>0.01670311680513787</v>
+        <v>0.02551746549722473</v>
       </c>
       <c r="T10">
-        <v>0.01670311680513787</v>
+        <v>0.02551746549722473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.7378119114083</v>
+        <v>64.993678</v>
       </c>
       <c r="H11">
-        <v>61.7378119114083</v>
+        <v>194.981034</v>
       </c>
       <c r="I11">
-        <v>0.2526075956097666</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="J11">
-        <v>0.2526075956097666</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.41776839932586</v>
+        <v>9.510473333333332</v>
       </c>
       <c r="N11">
-        <v>9.41776839932586</v>
+        <v>28.53142</v>
       </c>
       <c r="O11">
-        <v>0.4987145266410319</v>
+        <v>0.4694602279037812</v>
       </c>
       <c r="P11">
-        <v>0.4987145266410319</v>
+        <v>0.4694602279037812</v>
       </c>
       <c r="Q11">
-        <v>581.4324140627848</v>
+        <v>618.1206414542532</v>
       </c>
       <c r="R11">
-        <v>581.4324140627848</v>
+        <v>5563.08577308828</v>
       </c>
       <c r="S11">
-        <v>0.125979077470454</v>
+        <v>0.1188938213935902</v>
       </c>
       <c r="T11">
-        <v>0.125979077470454</v>
+        <v>0.1188938213935902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.7378119114083</v>
+        <v>64.993678</v>
       </c>
       <c r="H12">
-        <v>61.7378119114083</v>
+        <v>194.981034</v>
       </c>
       <c r="I12">
-        <v>0.2526075956097666</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="J12">
-        <v>0.2526075956097666</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.18661107578098</v>
+        <v>6.660130333333334</v>
       </c>
       <c r="N12">
-        <v>6.18661107578098</v>
+        <v>19.980391</v>
       </c>
       <c r="O12">
-        <v>0.3276097567223177</v>
+        <v>0.3287603250194579</v>
       </c>
       <c r="P12">
-        <v>0.3276097567223177</v>
+        <v>0.3287603250194578</v>
       </c>
       <c r="Q12">
-        <v>381.9478309656015</v>
+        <v>432.8663663226994</v>
       </c>
       <c r="R12">
-        <v>381.9478309656015</v>
+        <v>3895.797296904294</v>
       </c>
       <c r="S12">
-        <v>0.08275671294392527</v>
+        <v>0.08326066627346618</v>
       </c>
       <c r="T12">
-        <v>0.08275671294392527</v>
+        <v>0.08326066627346616</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.7378119114083</v>
+        <v>64.993678</v>
       </c>
       <c r="H13">
-        <v>61.7378119114083</v>
+        <v>194.981034</v>
       </c>
       <c r="I13">
-        <v>0.2526075956097666</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="J13">
-        <v>0.2526075956097666</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.0310389638536</v>
+        <v>2.046536</v>
       </c>
       <c r="N13">
-        <v>2.0310389638536</v>
+        <v>6.139608</v>
       </c>
       <c r="O13">
-        <v>0.1075529353132368</v>
+        <v>0.1010220231211724</v>
       </c>
       <c r="P13">
-        <v>0.1075529353132368</v>
+        <v>0.1010220231211723</v>
       </c>
       <c r="Q13">
-        <v>125.3919015351352</v>
+        <v>133.011901799408</v>
       </c>
       <c r="R13">
-        <v>125.3919015351352</v>
+        <v>1197.107116194672</v>
       </c>
       <c r="S13">
-        <v>0.02716868839024952</v>
+        <v>0.02558447693730834</v>
       </c>
       <c r="T13">
-        <v>0.02716868839024952</v>
+        <v>0.02558447693730834</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>94.2228289995552</v>
+        <v>94.308965</v>
       </c>
       <c r="H14">
-        <v>94.2228289995552</v>
+        <v>282.926895</v>
       </c>
       <c r="I14">
-        <v>0.3855239042044777</v>
+        <v>0.3674873085729315</v>
       </c>
       <c r="J14">
-        <v>0.3855239042044777</v>
+        <v>0.3674873085729314</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24866834061846</v>
+        <v>2.041175666666667</v>
       </c>
       <c r="N14">
-        <v>1.24866834061846</v>
+        <v>6.123527</v>
       </c>
       <c r="O14">
-        <v>0.06612278132341352</v>
+        <v>0.1007574239555886</v>
       </c>
       <c r="P14">
-        <v>0.06612278132341352</v>
+        <v>0.1007574239555885</v>
       </c>
       <c r="Q14">
-        <v>117.6530635352515</v>
+        <v>192.5011645065183</v>
       </c>
       <c r="R14">
-        <v>117.6530635352515</v>
+        <v>1732.510480558665</v>
       </c>
       <c r="S14">
-        <v>0.0254919128126613</v>
+        <v>0.03702707454818105</v>
       </c>
       <c r="T14">
-        <v>0.0254919128126613</v>
+        <v>0.03702707454818104</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>94.2228289995552</v>
+        <v>94.308965</v>
       </c>
       <c r="H15">
-        <v>94.2228289995552</v>
+        <v>282.926895</v>
       </c>
       <c r="I15">
-        <v>0.3855239042044777</v>
+        <v>0.3674873085729315</v>
       </c>
       <c r="J15">
-        <v>0.3855239042044777</v>
+        <v>0.3674873085729314</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.41776839932586</v>
+        <v>9.510473333333332</v>
       </c>
       <c r="N15">
-        <v>9.41776839932586</v>
+        <v>28.53142</v>
       </c>
       <c r="O15">
-        <v>0.4987145266410319</v>
+        <v>0.4694602279037812</v>
       </c>
       <c r="P15">
-        <v>0.4987145266410319</v>
+        <v>0.4694602279037812</v>
       </c>
       <c r="Q15">
-        <v>887.3687814470952</v>
+        <v>896.9228967267666</v>
       </c>
       <c r="R15">
-        <v>887.3687814470952</v>
+        <v>8072.306070540899</v>
       </c>
       <c r="S15">
-        <v>0.1922663713941386</v>
+        <v>0.1725206756343956</v>
       </c>
       <c r="T15">
-        <v>0.1922663713941386</v>
+        <v>0.1725206756343955</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>94.2228289995552</v>
+        <v>94.308965</v>
       </c>
       <c r="H16">
-        <v>94.2228289995552</v>
+        <v>282.926895</v>
       </c>
       <c r="I16">
-        <v>0.3855239042044777</v>
+        <v>0.3674873085729315</v>
       </c>
       <c r="J16">
-        <v>0.3855239042044777</v>
+        <v>0.3674873085729314</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.18661107578098</v>
+        <v>6.660130333333334</v>
       </c>
       <c r="N16">
-        <v>6.18661107578098</v>
+        <v>19.980391</v>
       </c>
       <c r="O16">
-        <v>0.3276097567223177</v>
+        <v>0.3287603250194579</v>
       </c>
       <c r="P16">
-        <v>0.3276097567223177</v>
+        <v>0.3287603250194578</v>
       </c>
       <c r="Q16">
-        <v>582.9199974800655</v>
+        <v>628.1099985017718</v>
       </c>
       <c r="R16">
-        <v>582.9199974800655</v>
+        <v>5652.989986515945</v>
       </c>
       <c r="S16">
-        <v>0.1263013924670671</v>
+        <v>0.1208152470069628</v>
       </c>
       <c r="T16">
-        <v>0.1263013924670671</v>
+        <v>0.1208152470069627</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>94.2228289995552</v>
+        <v>94.308965</v>
       </c>
       <c r="H17">
-        <v>94.2228289995552</v>
+        <v>282.926895</v>
       </c>
       <c r="I17">
-        <v>0.3855239042044777</v>
+        <v>0.3674873085729315</v>
       </c>
       <c r="J17">
-        <v>0.3855239042044777</v>
+        <v>0.3674873085729314</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.0310389638536</v>
+        <v>2.046536</v>
       </c>
       <c r="N17">
-        <v>2.0310389638536</v>
+        <v>6.139608</v>
       </c>
       <c r="O17">
-        <v>0.1075529353132368</v>
+        <v>0.1010220231211724</v>
       </c>
       <c r="P17">
-        <v>0.1075529353132368</v>
+        <v>0.1010220231211723</v>
       </c>
       <c r="Q17">
-        <v>191.3702369826115</v>
+        <v>193.00669199524</v>
       </c>
       <c r="R17">
-        <v>191.3702369826115</v>
+        <v>1737.06022795716</v>
       </c>
       <c r="S17">
-        <v>0.0414642275306107</v>
+        <v>0.03712431138339208</v>
       </c>
       <c r="T17">
-        <v>0.0414642275306107</v>
+        <v>0.03712431138339207</v>
       </c>
     </row>
   </sheetData>
